--- a/biology/Médecine/Corps_étranger_(film,_2011)/Corps_étranger_(film,_2011).xlsx
+++ b/biology/Médecine/Corps_étranger_(film,_2011)/Corps_étranger_(film,_2011).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corps_%C3%A9tranger_(film,_2011)</t>
+          <t>Corps_étranger_(film,_2011)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps étranger est un film documentaire belge francophone de 2011 réalisé par Christophe Hermans.
 Le film suit la vie d'Arnaud, un jeune homme en surpoids d'une vingtaine d'années qui décide de subir une opération de réduction de l'estomac.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corps_%C3%A9tranger_(film,_2011)</t>
+          <t>Corps_étranger_(film,_2011)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corps_%C3%A9tranger_(film,_2011)</t>
+          <t>Corps_étranger_(film,_2011)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,18 +553,20 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Corps étranger
 Réalisation : Christophe Hermans
 Photographie : Christophe Hermans
 Montage : Joël Mann
 Production : Jean-Yves Roubin
-Société de production : Frakas Productions[1], Wallonie Image Production, Anotherlight
+Société de production : Frakas Productions, Wallonie Image Production, Anotherlight
 Pays :  Belgique
 Langue : français
 Genre : documentaire
-Durée : 51 minutes[2]
+Durée : 51 minutes
 Dates de sortie : 5 octobre 2011</t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Corps_%C3%A9tranger_(film,_2011)</t>
+          <t>Corps_étranger_(film,_2011)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Festival Imagésanté de Liège : Prix du Premier Film "Alimentation et Santé"
 Festival international du film francophone de Namur : Prix du Public (Documentaire)
